--- a/02_Proyecto/09. Programa de Auditoria/PROGRAMA_AUDI_INTERNA_Grupo2.xlsx
+++ b/02_Proyecto/09. Programa de Auditoria/PROGRAMA_AUDI_INTERNA_Grupo2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>2025-ENERO-06</t>
   </si>
@@ -457,9 +457,6 @@
       </rPr>
       <t>Las pruebas basadas en datos y palabras clave con parámetros separados permiten reutilizar secuencias de acciones con diferentes datos, almacenados en tablas o bases de datos, creando así nuevas pruebas.</t>
     </r>
-  </si>
-  <si>
-    <t>Jorge Nacimba</t>
   </si>
   <si>
     <t>6.4</t>
@@ -28368,13 +28365,13 @@
         <v>71</v>
       </c>
       <c r="F17" s="139" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G17" s="140" t="s">
         <v>67</v>
       </c>
       <c r="H17" s="143" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
